--- a/docs/PTA3a_ADDC_30_1d5/PTA3a_ADDC_30_1d5_12.11.2024_output.xlsx
+++ b/docs/PTA3a_ADDC_30_1d5/PTA3a_ADDC_30_1d5_12.11.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731700436.1697836</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731700436.656534</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700436.1697836.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700436.656534.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>2785.65</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>2789.3</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>3.650000000000091</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731700436.7482605</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731700438.057806</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700436.7482605.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700438.057806.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>2793.4</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>2796.1</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-2.699999999999818</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731700438.4746652</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731700439.7719164</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700438.4746652.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700439.7719164.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>2792.15</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>2790.8</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-1.349999999999909</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731700440.3439724</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731700441.109924</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700440.3439724.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700441.109924.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>2794.5</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>2788.3</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>6.199999999999818</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731700441.1488214</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731700442.7495127</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700441.1488214.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700442.7495127.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>2786.45</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>2784.7</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-1.75</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -799,51 +845,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731700443.330985</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731700443.8904605</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700443.330985.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700443.8904605.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>2786.9</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>2785.45</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>1.450000000000273</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -851,51 +903,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731700444.0849414</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731700444.7930746</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700444.0849414.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700444.7930746.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>2783.35</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>2786.2</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>2.849999999999909</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -903,51 +961,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731700445.167074</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731700445.2578313</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700445.167074.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700445.2578313.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>2787.15</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>2783.45</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>3.700000000000273</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -955,51 +1019,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731700445.2717674</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731700445.3096929</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700445.2717674.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700445.3096929.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I11" t="n">
+      <c r="K11" t="n">
         <v>2783.45</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>2784.85</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>1.400000000000091</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -1007,51 +1077,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731700446.623154</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731700446.7857187</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700446.623154.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700446.7857187.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I12" t="n">
+      <c r="K12" t="n">
         <v>2778.4</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>2781.4</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>3</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -1059,51 +1135,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731700447.0999062</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731700447.6145012</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700447.0999062.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700447.6145012.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I13" t="n">
+      <c r="K13" t="n">
         <v>2775.45</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>2776.2</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.75</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -1111,51 +1193,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731700448.2508276</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731700448.3655212</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700448.2508276.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700448.3655212.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I14" t="n">
+      <c r="K14" t="n">
         <v>2776.5</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>2777.55</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-1.050000000000182</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -1163,51 +1251,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731700449.8644853</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731700450.2863574</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700449.8644853.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700450.2863574.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I15" t="n">
+      <c r="K15" t="n">
         <v>2775.1</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>2776.35</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>1.25</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -1215,51 +1309,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731700450.5017815</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731700450.7770445</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700450.5017815.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700450.7770445.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I16" t="n">
+      <c r="K16" t="n">
         <v>2780.2</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>2777.35</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>2.849999999999909</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -1267,51 +1367,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731700452.2960129</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731700452.5972054</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700452.2960129.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700452.5972054.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I17" t="n">
+      <c r="K17" t="n">
         <v>2783</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>2778.35</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>4.650000000000091</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.17</v>
       </c>
     </row>
